--- a/mime/问题.xlsx
+++ b/mime/问题.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>是否解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>不去改变file-list对应的那个变量，而是重新定义一个保存数据的变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npm install 报错 npm ERR! code ERESOLVE npm ERR! ERESOLVE unable to resolve dependency tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npm i --legacy-peer-deps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npm ERR! command failed npm ERR! command C:\Windows\system32\cmd.exe /d /s /c node ./build.js</t>
+  </si>
+  <si>
+    <t>python报错 npm install -g node-gyp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -458,6 +473,28 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
